--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095353.163269185</v>
+        <v>1139214.660541472</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7050515.803328427</v>
+        <v>7069455.198633812</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>189.9009867684679</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>42.03798971140245</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>137.8413084154459</v>
       </c>
       <c r="F4" t="n">
-        <v>128.3780225427134</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>373.4383368904548</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>403.7614716202468</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,7 +1057,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74923656988203</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>85.34364212566814</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>64.48054470009157</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>132.0828553373395</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8462026865832</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>350.6623221641467</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930767001</v>
+        <v>113.72182167445</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>410.6555217015913</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8462026865823</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>172.6623007436906</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1898,10 +1898,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>71.43430199953212</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>173.7950029088923</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>31.2439167388814</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.59754480244088</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800596</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>161.4258646586659</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>403.5699857080145</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>103.3456594571953</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2539,10 +2539,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571957</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.4123979031611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358962</v>
       </c>
       <c r="G28" t="n">
-        <v>159.657468174439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.05512456153223</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.828474294603</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>103.3456594571953</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3326,7 +3326,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430761</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023354</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3515,7 +3515,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629678</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3746,7 +3746,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932868</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>155.6230741389441</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>165.2047610440521</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.990622819019141</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,13 +4192,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.076515494037</v>
+        <v>1022.177246202104</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>988.0751774259315</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>796.2559988719236</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>766.5216580706228</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="T2" t="n">
-        <v>1654.720814210314</v>
+        <v>2235.29700038238</v>
       </c>
       <c r="U2" t="n">
-        <v>1395.498511527331</v>
+        <v>2235.29700038238</v>
       </c>
       <c r="V2" t="n">
-        <v>1395.498511527331</v>
+        <v>1872.680050316207</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.683460978768</v>
+        <v>1467.82459572724</v>
       </c>
       <c r="X2" t="n">
-        <v>1379.581401598483</v>
+        <v>1452.722536346955</v>
       </c>
       <c r="Y2" t="n">
-        <v>1375.33568193854</v>
+        <v>1044.436412646608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940184</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.2544353945135</v>
+        <v>526.780633729526</v>
       </c>
       <c r="C4" t="n">
-        <v>499.2544353945135</v>
+        <v>354.218922212751</v>
       </c>
       <c r="D4" t="n">
-        <v>333.3764425960361</v>
+        <v>188.3409294142736</v>
       </c>
       <c r="E4" t="n">
-        <v>163.6184388467734</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091165</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1463.437082214701</v>
       </c>
       <c r="W4" t="n">
-        <v>726.6741060804052</v>
+        <v>1191.410677800993</v>
       </c>
       <c r="X4" t="n">
-        <v>726.6741060804052</v>
+        <v>946.018923134405</v>
       </c>
       <c r="Y4" t="n">
-        <v>499.2544353945135</v>
+        <v>718.5992524485132</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.14448398095</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C5" t="n">
-        <v>863.562809718218</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D5" t="n">
-        <v>434.9811354554863</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>1294.424097892872</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.403650425453</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.0966550925557</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>199.5349435757807</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>199.5349435757807</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>66.6195087848011</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>341.3779633559367</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>341.3779633559367</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>791.3349444974347</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.9152738115429</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715257</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>122.202682595353</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102016</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890084</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743871</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743871</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743871</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743871</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1773.464909592205</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1773.464909592205</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1410.847959526032</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1005.992504937065</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>586.850041516376</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160294</v>
+        <v>2566.246123026474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717.5099687861812</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>544.9482572694061</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>379.0702644709288</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>379.0702644709288</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>202.363210432685</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851263</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851263</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232025</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911636</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902572</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1418.92752369985</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1838.596772925631</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178737</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1426.746746585464</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1154.720342171756</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>909.3285875051683</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>909.3285875051683</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5051,31 +5051,31 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>3028.309292652058</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>4008.488959222364</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556613</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W11" t="n">
         <v>3777.103341668068</v>
@@ -5084,7 +5084,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2171.986423221849</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1885.03091509228</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1367.612756011983</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
@@ -5270,34 +5270,34 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111518</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.514795328113</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.694461898419</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4188.004336731816</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4734.50312269041</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556612</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2938.178741336459</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587282</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2286.856950165738</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397526</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N17" t="n">
-        <v>2859.155227899</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3839.334894469307</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4667.644769302702</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,10 +5543,10 @@
         <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V17" t="n">
         <v>4181.958796257035</v>
@@ -5558,7 +5558,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>784.8119928040996</v>
       </c>
       <c r="C19" t="n">
-        <v>806.2298140987274</v>
+        <v>784.8119928040996</v>
       </c>
       <c r="D19" t="n">
-        <v>640.3518213002501</v>
+        <v>618.9340000056224</v>
       </c>
       <c r="E19" t="n">
-        <v>470.5938175509873</v>
+        <v>618.9340000056224</v>
       </c>
       <c r="F19" t="n">
-        <v>293.8867635127435</v>
+        <v>442.2269459673785</v>
       </c>
       <c r="G19" t="n">
-        <v>128.2954885385711</v>
+        <v>276.6356709932062</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>136.7334966835807</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289275</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208979</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>976.6306115230868</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062123</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,22 +5756,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>1051.621568765314</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>879.0598572485393</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>713.181864450062</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>543.4238607007993</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>366.7168066625555</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111523</v>
+        <v>201.1255316883831</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1243.440187484302</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1176.99789578166</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C28" t="n">
-        <v>1004.436184264884</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D28" t="n">
-        <v>838.5581914664072</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E28" t="n">
-        <v>668.8001877171444</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F28" t="n">
-        <v>492.0931336789006</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1368.816514500647</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562605</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577832</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2702.703152636678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2543.461783934674</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2543.461783934674</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2265.028783187779</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.146432354979</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>884.5847208382038</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>718.7067280397265</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>548.9487242904637</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>372.2416702522199</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>206.6503952780476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1476.384721759858</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1248.965051073966</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6977,10 +6977,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>790.3368563937642</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309359</v>
+        <v>617.7751448769891</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>451.8971520785118</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831959</v>
+        <v>282.1391483292491</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910052</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.0973401405613</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405613</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>754.219347342084</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545776</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7603,16 +7603,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1856.753788625736</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1584.727384212028</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X43" t="n">
-        <v>1339.33562954544</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.915958859548</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="44">
@@ -7655,7 +7655,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7673,25 +7673,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.710185817962</v>
+        <v>1035.728611060353</v>
       </c>
       <c r="C46" t="n">
-        <v>926.1484743011866</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>760.2704815027093</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>590.5124777534467</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>413.8054237152028</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>248.2141487410305</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>108.311974431405</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354715</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066071</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745681</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955481</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113126</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338907</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309249</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878953</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.26126017695</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755405</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.94881300851</v>
       </c>
       <c r="V46" t="n">
-        <v>2035.366634303136</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W46" t="n">
-        <v>1763.340229889428</v>
+        <v>1454.966900465232</v>
       </c>
       <c r="X46" t="n">
-        <v>1517.94847522284</v>
+        <v>1454.966900465232</v>
       </c>
       <c r="Y46" t="n">
-        <v>1290.528804536949</v>
+        <v>1227.547229779341</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,25 +8058,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854708</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>308.3808099909388</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>426.5791111208005</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>592.8367376838255</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791402</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>861.6252454614623</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>50.14457787892849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.14457787893031</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627256</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>11.38105307846735</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>50.1445778789294</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>111.4236523045832</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>185.1957776566211</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>185.1957776566195</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.2592358276478</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>48.17580493063053</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>11.38105307846786</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933396</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.73307607587165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="G28" t="n">
-        <v>4.277894049991573</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.148518520149608</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>35.15749310933393</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>128.4628789093297</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>5.631333357555243</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>81.78272691405228</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>608158.4916655029</v>
+        <v>613990.0507565154</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>608158.4916655029</v>
+        <v>615641.3929001034</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>609246.1745346233</v>
+        <v>615641.3929001034</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594760.3938272828</v>
+        <v>594760.3938272826</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594760.3938272827</v>
+        <v>594760.3938272828</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594760.3938272826</v>
+        <v>594760.3938272829</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619859.9620902177</v>
+        <v>619859.9620902176</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902175</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902177</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902179</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26320,10 @@
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
+        <v>328590.5336815896</v>
+      </c>
+      <c r="F2" t="n">
         <v>328590.5336815898</v>
-      </c>
-      <c r="F2" t="n">
-        <v>328590.5336815897</v>
       </c>
       <c r="G2" t="n">
         <v>328590.5336815896</v>
@@ -26335,7 +26335,7 @@
         <v>342457.4296892789</v>
       </c>
       <c r="J2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="K2" t="n">
         <v>342457.4296892789</v>
@@ -26344,16 +26344,16 @@
         <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="N2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
+        <v>342457.4296892788</v>
+      </c>
+      <c r="P2" t="n">
         <v>342457.4296892789</v>
-      </c>
-      <c r="P2" t="n">
-        <v>342457.4296892788</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390631</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784487</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485735</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449373</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
@@ -26433,7 +26433,7 @@
         <v>39457.78817960744</v>
       </c>
       <c r="H4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960739</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="N4" t="n">
         <v>41122.95192991275</v>
       </c>
-      <c r="N4" t="n">
-        <v>41122.95192991271</v>
-      </c>
       <c r="O4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991274</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>73519.34227764752</v>
+      </c>
+      <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
-      <c r="F5" t="n">
-        <v>73519.34227764752</v>
-      </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40684.86392398016</v>
+        <v>-78182.01768185341</v>
       </c>
       <c r="C6" t="n">
-        <v>101506.4367357297</v>
+        <v>117558.9417541968</v>
       </c>
       <c r="D6" t="n">
-        <v>95378.50246335636</v>
+        <v>134899.4861281032</v>
       </c>
       <c r="E6" t="n">
-        <v>-8185.890527693089</v>
+        <v>53801.76945942356</v>
       </c>
       <c r="F6" t="n">
-        <v>215613.4032243348</v>
+        <v>215536.844669538</v>
       </c>
       <c r="G6" t="n">
-        <v>215613.4032243346</v>
+        <v>215536.8446695379</v>
       </c>
       <c r="H6" t="n">
-        <v>215613.4032243347</v>
+        <v>215536.8446695378</v>
       </c>
       <c r="I6" t="n">
-        <v>205251.5235207341</v>
+        <v>205228.2991813516</v>
       </c>
       <c r="J6" t="n">
-        <v>112601.7738085834</v>
+        <v>62985.18532857743</v>
       </c>
       <c r="K6" t="n">
-        <v>223616.2391535736</v>
+        <v>209779.0062463461</v>
       </c>
       <c r="L6" t="n">
-        <v>214668.6280650641</v>
+        <v>223593.014814191</v>
       </c>
       <c r="M6" t="n">
-        <v>36825.25254310574</v>
+        <v>88603.07020118766</v>
       </c>
       <c r="N6" t="n">
-        <v>223616.2391535738</v>
+        <v>223593.0148141911</v>
       </c>
       <c r="O6" t="n">
-        <v>223616.2391535737</v>
+        <v>223593.0148141909</v>
       </c>
       <c r="P6" t="n">
-        <v>223616.2391535736</v>
+        <v>223593.014814191</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>241.649700208832</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>175.8285651442893</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.21911529632422</v>
       </c>
       <c r="F4" t="n">
-        <v>46.56196095514798</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>55.99866050283293</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>11.18956716623563</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27786,13 +27786,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>175.1886005500396</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>336.6929326543906</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>153.3860101556002</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>152.0030977109343</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854708</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>308.3808099909388</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>426.5791111208005</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>592.8367376838255</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791402</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>861.6252454614623</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.4542274390827</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38184,7 +38184,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
